--- a/pred_ohlcv/54_23/2020-01-19 AOA ohlcv.xlsx
+++ b/pred_ohlcv/54_23/2020-01-19 AOA ohlcv.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>open</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>low</t>
+  </si>
+  <si>
+    <t>OBV</t>
   </si>
   <si>
     <t>trade_state</t>
@@ -386,13 +389,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F351"/>
+  <dimension ref="A1:G351"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -408,8 +411,11 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -426,10 +432,13 @@
         <v>1.867</v>
       </c>
       <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>695884</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -446,10 +455,13 @@
         <v>1.889</v>
       </c>
       <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>497.3299</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -466,10 +478,13 @@
         <v>1.866</v>
       </c>
       <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>387207.5287</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -486,10 +501,13 @@
         <v>1.86</v>
       </c>
       <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>31704.2881</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -506,10 +524,13 @@
         <v>1.85</v>
       </c>
       <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>710470.0257</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -526,10 +547,13 @@
         <v>1.851</v>
       </c>
       <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>3128386</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -546,10 +570,13 @@
         <v>1.851</v>
       </c>
       <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>2237094</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -566,10 +593,13 @@
         <v>1.851</v>
       </c>
       <c r="F9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>1156558</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -586,10 +616,13 @@
         <v>1.86</v>
       </c>
       <c r="F10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>50393.4171</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -606,10 +639,13 @@
         <v>1.86</v>
       </c>
       <c r="F11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>268056.4105</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -626,10 +662,13 @@
         <v>1.861</v>
       </c>
       <c r="F12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>3628015</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -646,10 +685,13 @@
         <v>1.861</v>
       </c>
       <c r="F13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>3117676</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -666,10 +708,13 @@
         <v>1.862</v>
       </c>
       <c r="F14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>1239463</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -686,10 +731,13 @@
         <v>1.861</v>
       </c>
       <c r="F15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>2983826</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -706,10 +754,13 @@
         <v>1.861</v>
       </c>
       <c r="F16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>3492026</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -726,10 +777,13 @@
         <v>1.861</v>
       </c>
       <c r="F17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>1361803</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -746,10 +800,13 @@
         <v>1.86</v>
       </c>
       <c r="F18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>128242.6215</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -766,10 +823,13 @@
         <v>1.86</v>
       </c>
       <c r="F19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>17292.9496</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -786,10 +846,13 @@
         <v>1.86</v>
       </c>
       <c r="F20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>222032.5322</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -806,10 +869,13 @@
         <v>1.861</v>
       </c>
       <c r="F21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>1960807</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -826,10 +892,13 @@
         <v>1.861</v>
       </c>
       <c r="F22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>2794900</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -846,10 +915,13 @@
         <v>1.861</v>
       </c>
       <c r="F23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>3042157</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -866,10 +938,13 @@
         <v>1.862</v>
       </c>
       <c r="F24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>1679204</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -886,10 +961,13 @@
         <v>1.862</v>
       </c>
       <c r="F25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>3441698</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -906,10 +984,13 @@
         <v>1.862</v>
       </c>
       <c r="F26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>3080894</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -926,10 +1007,13 @@
         <v>1.862</v>
       </c>
       <c r="F27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>1810389</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -946,10 +1030,13 @@
         <v>1.862</v>
       </c>
       <c r="F28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>2974069</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -966,10 +1053,13 @@
         <v>1.862</v>
       </c>
       <c r="F29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>2498845</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -986,10 +1076,13 @@
         <v>1.862</v>
       </c>
       <c r="F30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>2844470</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1006,10 +1099,13 @@
         <v>1.862</v>
       </c>
       <c r="F31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>3026252</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1026,10 +1122,13 @@
         <v>1.862</v>
       </c>
       <c r="F32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>1055577</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1046,10 +1145,13 @@
         <v>1.862</v>
       </c>
       <c r="F33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>1497311</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1066,10 +1168,13 @@
         <v>1.862</v>
       </c>
       <c r="F34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>2621562</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1086,10 +1191,13 @@
         <v>1.862</v>
       </c>
       <c r="F35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>2919323</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1106,10 +1214,13 @@
         <v>1.861</v>
       </c>
       <c r="F36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>3098063</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1126,10 +1237,13 @@
         <v>1.861</v>
       </c>
       <c r="F37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>3297552</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1146,10 +1260,13 @@
         <v>1.861</v>
       </c>
       <c r="F38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>1155983</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1166,10 +1283,13 @@
         <v>1.86</v>
       </c>
       <c r="F39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>1363215.3458</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1186,10 +1306,13 @@
         <v>1.86</v>
       </c>
       <c r="F40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>66863.6329</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1206,10 +1329,13 @@
         <v>1.862</v>
       </c>
       <c r="F41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>3045047</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1226,10 +1352,13 @@
         <v>1.862</v>
       </c>
       <c r="F42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>1719283</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1246,10 +1375,13 @@
         <v>1.863</v>
       </c>
       <c r="F43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>441541.2917</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1266,10 +1398,13 @@
         <v>1.863</v>
       </c>
       <c r="F44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>79935.909</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1286,10 +1421,13 @@
         <v>1.863</v>
       </c>
       <c r="F45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>44410.1561</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1306,10 +1444,13 @@
         <v>1.865</v>
       </c>
       <c r="F46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>1146770.8423</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1326,10 +1467,13 @@
         <v>1.865</v>
       </c>
       <c r="F47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>251061.9445</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1346,10 +1490,13 @@
         <v>1.86</v>
       </c>
       <c r="F48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>1672809.706</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1366,10 +1513,13 @@
         <v>1.861</v>
       </c>
       <c r="F49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>2075887</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1386,10 +1536,13 @@
         <v>1.877</v>
       </c>
       <c r="F50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>532.7650506126798</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1406,10 +1559,13 @@
         <v>1.877</v>
       </c>
       <c r="F51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>30510.45464938732</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1426,10 +1582,13 @@
         <v>1.877</v>
       </c>
       <c r="F52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>2353685.262750613</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1446,10 +1605,13 @@
         <v>1.862</v>
       </c>
       <c r="F53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>849907</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1466,10 +1628,13 @@
         <v>1.862</v>
       </c>
       <c r="F54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>3154299</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1486,10 +1651,13 @@
         <v>1.862</v>
       </c>
       <c r="F55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>3409932</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1506,10 +1674,13 @@
         <v>1.877</v>
       </c>
       <c r="F56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>300000</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1526,10 +1697,13 @@
         <v>1.877</v>
       </c>
       <c r="F57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>357558.6234</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1546,10 +1720,13 @@
         <v>1.861</v>
       </c>
       <c r="F58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>323702.4363</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1566,10 +1743,13 @@
         <v>1.861</v>
       </c>
       <c r="F59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>30863.7386</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1586,10 +1766,13 @@
         <v>1.862</v>
       </c>
       <c r="F60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>244177.0278</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -1606,10 +1789,13 @@
         <v>1.861</v>
       </c>
       <c r="F61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>1187208.7781</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -1626,10 +1812,13 @@
         <v>1.86</v>
       </c>
       <c r="F62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>999900</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -1646,10 +1835,13 @@
         <v>1.861</v>
       </c>
       <c r="F63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>510625</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -1666,10 +1858,13 @@
         <v>1.861</v>
       </c>
       <c r="F64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>3494604</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -1686,10 +1881,13 @@
         <v>1.862</v>
       </c>
       <c r="F65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>1499880.1642</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -1706,10 +1904,13 @@
         <v>1.878</v>
       </c>
       <c r="F66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>449046.2823</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -1726,10 +1927,13 @@
         <v>1.878</v>
       </c>
       <c r="F67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>19755.7623</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -1746,10 +1950,13 @@
         <v>1.878</v>
       </c>
       <c r="F68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>29634.176</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -1766,10 +1973,13 @@
         <v>1.862</v>
       </c>
       <c r="F69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>1457967</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -1786,10 +1996,13 @@
         <v>1.878</v>
       </c>
       <c r="F70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>159744.4089456869</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -1806,10 +2019,13 @@
         <v>1.861</v>
       </c>
       <c r="F71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>209668.1069</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -1826,10 +2042,13 @@
         <v>1.861</v>
       </c>
       <c r="F72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>10000</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -1846,10 +2065,13 @@
         <v>1.861</v>
       </c>
       <c r="F73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>521933.8978</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -1866,10 +2088,13 @@
         <v>1.861</v>
       </c>
       <c r="F74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>100000</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -1886,10 +2111,13 @@
         <v>1.85</v>
       </c>
       <c r="F75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>200000</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -1906,10 +2134,13 @@
         <v>1.847</v>
       </c>
       <c r="F76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>808229.9510999999</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -1926,10 +2157,13 @@
         <v>1.839</v>
       </c>
       <c r="F77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>1770363.6756</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -1946,10 +2180,13 @@
         <v>1.838</v>
       </c>
       <c r="F78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>426832.7169</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -1966,10 +2203,13 @@
         <v>1.838</v>
       </c>
       <c r="F79">
+        <v>888949.004</v>
+      </c>
+      <c r="G79">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:7">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -1986,10 +2226,13 @@
         <v>1.851</v>
       </c>
       <c r="F80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>3098013</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2006,10 +2249,13 @@
         <v>1.852</v>
       </c>
       <c r="F81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>3379069.3192</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2026,10 +2272,13 @@
         <v>1.852</v>
       </c>
       <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>666479</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2046,10 +2295,13 @@
         <v>1.867</v>
       </c>
       <c r="F83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>536</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2066,10 +2318,13 @@
         <v>1.868</v>
       </c>
       <c r="F84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>252583</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2086,10 +2341,13 @@
         <v>1.85</v>
       </c>
       <c r="F85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>3556629</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2106,10 +2364,13 @@
         <v>1.85</v>
       </c>
       <c r="F86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>3754583</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2126,10 +2387,13 @@
         <v>1.868</v>
       </c>
       <c r="F87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>60000</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -2146,10 +2410,13 @@
         <v>1.851</v>
       </c>
       <c r="F88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>2026936</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -2166,10 +2433,13 @@
         <v>1.851</v>
       </c>
       <c r="F89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>2853744</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -2186,10 +2456,13 @@
         <v>1.851</v>
       </c>
       <c r="F90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>1731926.7104</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -2206,10 +2479,13 @@
         <v>1.878</v>
       </c>
       <c r="F91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>189781.9899</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -2226,10 +2502,13 @@
         <v>1.878</v>
       </c>
       <c r="F92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>48305.5864</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -2246,10 +2525,13 @@
         <v>1.878</v>
       </c>
       <c r="F93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>300000</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -2266,10 +2548,13 @@
         <v>1.878</v>
       </c>
       <c r="F94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>386110.4781</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -2286,10 +2571,13 @@
         <v>1.878</v>
       </c>
       <c r="F95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>26557.6686</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -2306,10 +2594,13 @@
         <v>1.878</v>
       </c>
       <c r="F96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
+        <v>2736.2637</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -2326,10 +2617,13 @@
         <v>1.862</v>
       </c>
       <c r="F97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>10000</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -2346,10 +2640,13 @@
         <v>1.877</v>
       </c>
       <c r="F98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>267</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -2366,10 +2663,13 @@
         <v>1.862</v>
       </c>
       <c r="F99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>547</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -2386,10 +2686,13 @@
         <v>1.862</v>
       </c>
       <c r="F100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
+        <v>561501.2886</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -2406,10 +2709,13 @@
         <v>1.861</v>
       </c>
       <c r="F101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>352514.9088</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -2426,10 +2732,13 @@
         <v>1.861</v>
       </c>
       <c r="F102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>598900.6002</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -2446,10 +2755,13 @@
         <v>1.861</v>
       </c>
       <c r="F103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>1035264</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -2466,10 +2778,13 @@
         <v>1.877</v>
       </c>
       <c r="F104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
+        <v>29237.0057</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -2486,10 +2801,13 @@
         <v>1.878</v>
       </c>
       <c r="F105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
+        <v>270</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -2506,10 +2824,13 @@
         <v>1.877</v>
       </c>
       <c r="F106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
+        <v>176463.8138</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -2526,10 +2847,13 @@
         <v>1.878</v>
       </c>
       <c r="F107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
+        <v>168340.7880724175</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -2546,10 +2870,13 @@
         <v>1.865</v>
       </c>
       <c r="F108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
+        <v>90811.5211</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -2566,10 +2893,13 @@
         <v>1.878</v>
       </c>
       <c r="F109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
+        <v>267</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -2586,10 +2916,13 @@
         <v>1.876</v>
       </c>
       <c r="F110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
+        <v>267</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -2606,10 +2939,13 @@
         <v>1.865</v>
       </c>
       <c r="F111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
+        <v>11281.8883</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -2626,10 +2962,13 @@
         <v>1.876</v>
       </c>
       <c r="F112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
+        <v>159515.5501</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -2646,10 +2985,13 @@
         <v>1.876</v>
       </c>
       <c r="F113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
+        <v>330056.0804</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -2666,10 +3008,13 @@
         <v>1.876</v>
       </c>
       <c r="F114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
+        <v>10462.2718</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -2686,10 +3031,13 @@
         <v>1.865</v>
       </c>
       <c r="F115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
+        <v>330153.0804</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -2706,10 +3054,13 @@
         <v>1.875</v>
       </c>
       <c r="F116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
+        <v>267</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -2726,10 +3077,13 @@
         <v>1.874</v>
       </c>
       <c r="F117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
+        <v>267</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -2746,10 +3100,13 @@
         <v>1.868</v>
       </c>
       <c r="F118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
+        <v>374465.4744</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -2766,10 +3123,13 @@
         <v>1.866</v>
       </c>
       <c r="F119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
+        <v>113089.9974</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -2786,10 +3146,13 @@
         <v>1.866</v>
       </c>
       <c r="F120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
+        <v>16915.9747</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -2806,10 +3169,13 @@
         <v>1.875</v>
       </c>
       <c r="F121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
+        <v>174601.2126</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -2826,10 +3192,13 @@
         <v>1.875</v>
       </c>
       <c r="F122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
+        <v>90971.4278</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -2846,10 +3215,13 @@
         <v>1.876</v>
       </c>
       <c r="F123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
+        <v>105014.9094</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -2866,10 +3238,13 @@
         <v>1.876</v>
       </c>
       <c r="F124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
+        <v>105015.4411</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -2886,10 +3261,13 @@
         <v>1.876</v>
       </c>
       <c r="F125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
+        <v>193125.4114</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -2906,10 +3284,13 @@
         <v>1.87</v>
       </c>
       <c r="F126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
+        <v>35719.9793</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -2926,10 +3307,13 @@
         <v>1.862</v>
       </c>
       <c r="F127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
+        <v>343350.9938</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -2946,10 +3330,13 @@
         <v>1.86</v>
       </c>
       <c r="F128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
+        <v>454735.6346</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -2966,10 +3353,13 @@
         <v>1.86</v>
       </c>
       <c r="F129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
+        <v>102097.8164</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -2986,10 +3376,13 @@
         <v>1.862</v>
       </c>
       <c r="F130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
+        <v>5083.5907</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -3006,10 +3399,13 @@
         <v>1.86</v>
       </c>
       <c r="F131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
+        <v>9816.8264</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -3026,10 +3422,13 @@
         <v>1.85</v>
       </c>
       <c r="F132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
+        <v>163561.9554</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -3046,10 +3445,13 @@
         <v>1.85</v>
       </c>
       <c r="F133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
+        <v>80219.3602</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -3066,10 +3468,13 @@
         <v>1.865</v>
       </c>
       <c r="F134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
+        <v>35217.35</v>
+      </c>
+      <c r="G134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -3086,10 +3491,13 @@
         <v>1.852</v>
       </c>
       <c r="F135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
+        <v>531142.303</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -3106,10 +3514,13 @@
         <v>1.852</v>
       </c>
       <c r="F136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
+        <v>3249792.0897</v>
+      </c>
+      <c r="G136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -3126,10 +3537,13 @@
         <v>1.853</v>
       </c>
       <c r="F137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
+        <v>3085608.3445</v>
+      </c>
+      <c r="G137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -3146,10 +3560,13 @@
         <v>1.853</v>
       </c>
       <c r="F138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
+        <v>437070</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -3166,10 +3583,13 @@
         <v>1.868</v>
       </c>
       <c r="F139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
+        <v>38592.7108</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -3186,10 +3606,13 @@
         <v>1.868</v>
       </c>
       <c r="F140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
+        <v>596.891</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -3206,10 +3629,13 @@
         <v>1.855</v>
       </c>
       <c r="F141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
+        <v>4916.5495</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -3226,10 +3652,13 @@
         <v>1.855</v>
       </c>
       <c r="F142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
+        <v>729229.515</v>
+      </c>
+      <c r="G142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -3246,10 +3675,13 @@
         <v>1.854</v>
       </c>
       <c r="F143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
+        <v>186423.6294</v>
+      </c>
+      <c r="G143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -3266,10 +3698,13 @@
         <v>1.854</v>
       </c>
       <c r="F144">
+        <v>1034732.809874706</v>
+      </c>
+      <c r="G144">
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:7">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -3286,10 +3721,13 @@
         <v>1.854</v>
       </c>
       <c r="F145">
+        <v>3130550</v>
+      </c>
+      <c r="G145">
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:7">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -3306,10 +3744,13 @@
         <v>1.854</v>
       </c>
       <c r="F146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
+        <v>3234255</v>
+      </c>
+      <c r="G146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -3326,10 +3767,13 @@
         <v>1.854</v>
       </c>
       <c r="F147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
+        <v>473852</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -3346,10 +3790,13 @@
         <v>1.868</v>
       </c>
       <c r="F148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
+        <v>13507.7572</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -3366,10 +3813,13 @@
         <v>1.868</v>
       </c>
       <c r="F149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6">
+        <v>268</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -3386,10 +3836,13 @@
         <v>1.868</v>
       </c>
       <c r="F150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
+        <v>308.3404</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -3406,10 +3859,13 @@
         <v>1.868</v>
       </c>
       <c r="F151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
+        <v>151442.7501</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -3426,10 +3882,13 @@
         <v>1.867</v>
       </c>
       <c r="F152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6">
+        <v>25567.8867</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -3446,10 +3905,13 @@
         <v>1.868</v>
       </c>
       <c r="F153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6">
+        <v>7950.1233</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -3466,10 +3928,13 @@
         <v>1.87</v>
       </c>
       <c r="F154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6">
+        <v>1460.4878</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -3486,10 +3951,13 @@
         <v>1.87</v>
       </c>
       <c r="F155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6">
+        <v>285707.2273252941</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -3506,10 +3974,13 @@
         <v>1.877</v>
       </c>
       <c r="F156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6">
+        <v>292143.2463</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -3526,10 +3997,13 @@
         <v>1.879</v>
       </c>
       <c r="F157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6">
+        <v>823400.4264999999</v>
+      </c>
+      <c r="G157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -3546,10 +4020,13 @@
         <v>1.885</v>
       </c>
       <c r="F158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6">
+        <v>500000</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -3566,10 +4043,13 @@
         <v>1.889</v>
       </c>
       <c r="F159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6">
+        <v>1000</v>
+      </c>
+      <c r="G159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -3586,10 +4066,13 @@
         <v>1.89</v>
       </c>
       <c r="F160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6">
+        <v>133773.2664</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -3606,10 +4089,13 @@
         <v>1.89</v>
       </c>
       <c r="F161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6">
+        <v>70117.34149999999</v>
+      </c>
+      <c r="G161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -3626,10 +4112,13 @@
         <v>1.89</v>
       </c>
       <c r="F162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6">
+        <v>24513.4359</v>
+      </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -3646,10 +4135,13 @@
         <v>1.868</v>
       </c>
       <c r="F163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6">
+        <v>918172.1621</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -3666,10 +4158,13 @@
         <v>1.868</v>
       </c>
       <c r="F164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6">
+        <v>2730300</v>
+      </c>
+      <c r="G164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -3686,10 +4181,13 @@
         <v>1.868</v>
       </c>
       <c r="F165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6">
+        <v>3525816</v>
+      </c>
+      <c r="G165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -3706,10 +4204,13 @@
         <v>1.887</v>
       </c>
       <c r="F166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6">
+        <v>8947.436799999999</v>
+      </c>
+      <c r="G166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -3726,10 +4227,13 @@
         <v>1.887</v>
       </c>
       <c r="F167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6">
+        <v>278500.065</v>
+      </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -3746,10 +4250,13 @@
         <v>1.885</v>
       </c>
       <c r="F168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6">
+        <v>188982.8267</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -3766,10 +4273,13 @@
         <v>1.89</v>
       </c>
       <c r="F169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6">
+        <v>171891.5568</v>
+      </c>
+      <c r="G169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -3786,10 +4296,13 @@
         <v>1.89</v>
       </c>
       <c r="F170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6">
+        <v>109510.1095</v>
+      </c>
+      <c r="G170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -3806,10 +4319,13 @@
         <v>1.893</v>
       </c>
       <c r="F171">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6">
+        <v>289187.9866</v>
+      </c>
+      <c r="G171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -3826,10 +4342,13 @@
         <v>1.9</v>
       </c>
       <c r="F172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6">
+        <v>271843.4072</v>
+      </c>
+      <c r="G172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -3846,10 +4365,13 @@
         <v>1.888</v>
       </c>
       <c r="F173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6">
+        <v>1711703.4058</v>
+      </c>
+      <c r="G173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -3866,10 +4388,13 @@
         <v>1.888</v>
       </c>
       <c r="F174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6">
+        <v>1388192</v>
+      </c>
+      <c r="G174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -3886,10 +4411,13 @@
         <v>1.888</v>
       </c>
       <c r="F175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6">
+        <v>2069525</v>
+      </c>
+      <c r="G175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -3906,10 +4434,13 @@
         <v>1.888</v>
       </c>
       <c r="F176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6">
+        <v>721627.0845999999</v>
+      </c>
+      <c r="G176">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -3926,10 +4457,13 @@
         <v>1.903</v>
       </c>
       <c r="F177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6">
+        <v>1000</v>
+      </c>
+      <c r="G177">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -3946,10 +4480,13 @@
         <v>1.903</v>
       </c>
       <c r="F178">
+        <v>100000</v>
+      </c>
+      <c r="G178">
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:7">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -3966,10 +4503,13 @@
         <v>1.903</v>
       </c>
       <c r="F179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6">
+        <v>128060.4185</v>
+      </c>
+      <c r="G179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -3986,10 +4526,13 @@
         <v>1.903</v>
       </c>
       <c r="F180">
+        <v>558203.2968</v>
+      </c>
+      <c r="G180">
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:7">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -4006,10 +4549,13 @@
         <v>1.902</v>
       </c>
       <c r="F181">
+        <v>112019.4429847609</v>
+      </c>
+      <c r="G181">
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:7">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -4026,10 +4572,13 @@
         <v>1.889</v>
       </c>
       <c r="F182">
+        <v>190000</v>
+      </c>
+      <c r="G182">
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:7">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -4046,10 +4595,13 @@
         <v>1.889</v>
       </c>
       <c r="F183">
+        <v>1255.0861</v>
+      </c>
+      <c r="G183">
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:7">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -4066,10 +4618,13 @@
         <v>1.889</v>
       </c>
       <c r="F184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6">
+        <v>435467.3137</v>
+      </c>
+      <c r="G184">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -4086,10 +4641,13 @@
         <v>1.889</v>
       </c>
       <c r="F185">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6">
+        <v>80000</v>
+      </c>
+      <c r="G185">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -4106,10 +4664,13 @@
         <v>1.887</v>
       </c>
       <c r="F186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6">
+        <v>71810.48420000001</v>
+      </c>
+      <c r="G186">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -4126,10 +4687,13 @@
         <v>1.886</v>
       </c>
       <c r="F187">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6">
+        <v>1396813</v>
+      </c>
+      <c r="G187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -4146,10 +4710,13 @@
         <v>1.886</v>
       </c>
       <c r="F188">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6">
+        <v>722741</v>
+      </c>
+      <c r="G188">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -4166,10 +4733,13 @@
         <v>1.875</v>
       </c>
       <c r="F189">
+        <v>151442.7501</v>
+      </c>
+      <c r="G189">
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:7">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -4186,10 +4756,13 @@
         <v>1.901</v>
       </c>
       <c r="F190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6">
+        <v>527</v>
+      </c>
+      <c r="G190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -4206,10 +4779,13 @@
         <v>1.88</v>
       </c>
       <c r="F191">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6">
+        <v>539.2476</v>
+      </c>
+      <c r="G191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -4226,10 +4802,13 @@
         <v>1.877</v>
       </c>
       <c r="F192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6">
+        <v>885702.49</v>
+      </c>
+      <c r="G192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -4246,10 +4825,13 @@
         <v>1.877</v>
       </c>
       <c r="F193">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6">
+        <v>2873089.982629622</v>
+      </c>
+      <c r="G193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -4266,10 +4848,13 @@
         <v>1.877</v>
       </c>
       <c r="F194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6">
+        <v>2925603.8154</v>
+      </c>
+      <c r="G194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -4286,10 +4871,13 @@
         <v>1.877</v>
       </c>
       <c r="F195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6">
+        <v>709574</v>
+      </c>
+      <c r="G195">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -4306,10 +4894,13 @@
         <v>1.902</v>
       </c>
       <c r="F196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6">
+        <v>263</v>
+      </c>
+      <c r="G196">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -4326,10 +4917,13 @@
         <v>1.877</v>
       </c>
       <c r="F197">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6">
+        <v>1110128.8384</v>
+      </c>
+      <c r="G197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -4346,10 +4940,13 @@
         <v>1.872</v>
       </c>
       <c r="F198">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6">
+        <v>174585.3956</v>
+      </c>
+      <c r="G198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -4366,10 +4963,13 @@
         <v>1.866</v>
       </c>
       <c r="F199">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6">
+        <v>836110.4291</v>
+      </c>
+      <c r="G199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -4386,10 +4986,13 @@
         <v>1.862</v>
       </c>
       <c r="F200">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6">
+        <v>79628.6369</v>
+      </c>
+      <c r="G200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -4406,10 +5009,13 @@
         <v>1.862</v>
       </c>
       <c r="F201">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6">
+        <v>1516850.3771</v>
+      </c>
+      <c r="G201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -4426,10 +5032,13 @@
         <v>1.874</v>
       </c>
       <c r="F202">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6">
+        <v>1000</v>
+      </c>
+      <c r="G202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -4446,10 +5055,13 @@
         <v>1.871</v>
       </c>
       <c r="F203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6">
+        <v>4152423.002</v>
+      </c>
+      <c r="G203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -4466,10 +5078,13 @@
         <v>1.871</v>
       </c>
       <c r="F204">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6">
+        <v>2950085</v>
+      </c>
+      <c r="G204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -4486,10 +5101,13 @@
         <v>1.871</v>
       </c>
       <c r="F205">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6">
+        <v>2330980</v>
+      </c>
+      <c r="G205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -4506,10 +5124,13 @@
         <v>1.89</v>
       </c>
       <c r="F206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6">
+        <v>108469.2506</v>
+      </c>
+      <c r="G206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -4526,10 +5147,13 @@
         <v>1.88</v>
       </c>
       <c r="F207">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6">
+        <v>98141.59329999999</v>
+      </c>
+      <c r="G207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -4546,10 +5170,13 @@
         <v>1.88</v>
       </c>
       <c r="F208">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6">
+        <v>459580.2115</v>
+      </c>
+      <c r="G208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -4566,10 +5193,13 @@
         <v>1.88</v>
       </c>
       <c r="F209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6">
+        <v>2210287.2605</v>
+      </c>
+      <c r="G209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -4586,10 +5216,13 @@
         <v>1.881</v>
       </c>
       <c r="F210">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6">
+        <v>2805159</v>
+      </c>
+      <c r="G210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -4606,10 +5239,13 @@
         <v>1.881</v>
       </c>
       <c r="F211">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6">
+        <v>2879444.666</v>
+      </c>
+      <c r="G211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -4626,10 +5262,13 @@
         <v>1.902</v>
       </c>
       <c r="F212">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6">
+        <v>376196.9075</v>
+      </c>
+      <c r="G212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -4646,10 +5285,13 @@
         <v>1.886</v>
       </c>
       <c r="F213">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6">
+        <v>1502182</v>
+      </c>
+      <c r="G213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -4666,10 +5308,13 @@
         <v>1.886</v>
       </c>
       <c r="F214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6">
+        <v>3376641</v>
+      </c>
+      <c r="G214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -4686,10 +5331,13 @@
         <v>1.888</v>
       </c>
       <c r="F215">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6">
+        <v>1366090.930686966</v>
+      </c>
+      <c r="G215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -4706,10 +5354,13 @@
         <v>1.888</v>
       </c>
       <c r="F216">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6">
+        <v>1274194</v>
+      </c>
+      <c r="G216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -4726,10 +5377,13 @@
         <v>1.905</v>
       </c>
       <c r="F217">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6">
+        <v>166813.1403</v>
+      </c>
+      <c r="G217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -4746,10 +5400,13 @@
         <v>1.905</v>
       </c>
       <c r="F218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6">
+        <v>125109.8551618373</v>
+      </c>
+      <c r="G218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -4766,10 +5423,13 @@
         <v>1.905</v>
       </c>
       <c r="F219">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6">
+        <v>3.8162729658791e-05</v>
+      </c>
+      <c r="G219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -4786,10 +5446,13 @@
         <v>1.904</v>
       </c>
       <c r="F220">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6">
+        <v>26194.9642</v>
+      </c>
+      <c r="G220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -4806,10 +5469,13 @@
         <v>1.89</v>
       </c>
       <c r="F221">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6">
+        <v>358983.1743</v>
+      </c>
+      <c r="G221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -4826,10 +5492,13 @@
         <v>1.89</v>
       </c>
       <c r="F222">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6">
+        <v>4597928.1901</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -4846,10 +5515,13 @@
         <v>1.859</v>
       </c>
       <c r="F223">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6">
+        <v>875784.443</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -4866,10 +5538,13 @@
         <v>1.89</v>
       </c>
       <c r="F224">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6">
+        <v>32522.2679</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -4886,10 +5561,13 @@
         <v>1.9</v>
       </c>
       <c r="F225">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6">
+        <v>264</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -4906,10 +5584,13 @@
         <v>1.9</v>
       </c>
       <c r="F226">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6">
+        <v>7984.7092</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -4926,10 +5607,13 @@
         <v>1.902</v>
       </c>
       <c r="F227">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6">
+        <v>11361.6222</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -4946,10 +5630,13 @@
         <v>1.902</v>
       </c>
       <c r="F228">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6">
+        <v>1000</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -4966,10 +5653,13 @@
         <v>1.872</v>
       </c>
       <c r="F229">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6">
+        <v>2358033</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -4986,10 +5676,13 @@
         <v>1.871</v>
       </c>
       <c r="F230">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6">
+        <v>3642887</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -5006,10 +5699,13 @@
         <v>1.871</v>
       </c>
       <c r="F231">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6">
+        <v>1497853</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -5026,10 +5722,13 @@
         <v>1.897</v>
       </c>
       <c r="F232">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6">
+        <v>528</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -5046,10 +5745,13 @@
         <v>1.897</v>
       </c>
       <c r="F233">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6">
+        <v>265</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -5066,10 +5768,13 @@
         <v>1.872</v>
       </c>
       <c r="F234">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6">
+        <v>2361573</v>
+      </c>
+      <c r="G234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -5086,10 +5791,13 @@
         <v>1.872</v>
       </c>
       <c r="F235">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6">
+        <v>2921962</v>
+      </c>
+      <c r="G235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -5106,10 +5814,13 @@
         <v>1.872</v>
       </c>
       <c r="F236">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6">
+        <v>2045901</v>
+      </c>
+      <c r="G236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -5126,10 +5837,13 @@
         <v>1.897</v>
       </c>
       <c r="F237">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6">
+        <v>790.621</v>
+      </c>
+      <c r="G237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -5146,10 +5860,13 @@
         <v>1.86</v>
       </c>
       <c r="F238">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6">
+        <v>2804252</v>
+      </c>
+      <c r="G238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -5166,10 +5883,13 @@
         <v>1.86</v>
       </c>
       <c r="F239">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6">
+        <v>2876304</v>
+      </c>
+      <c r="G239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -5186,10 +5906,13 @@
         <v>1.871</v>
       </c>
       <c r="F240">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6">
+        <v>1486552.3</v>
+      </c>
+      <c r="G240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -5206,10 +5929,13 @@
         <v>1.86</v>
       </c>
       <c r="F241">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6">
+        <v>342121.8459</v>
+      </c>
+      <c r="G241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -5226,10 +5952,13 @@
         <v>1.856</v>
       </c>
       <c r="F242">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6">
+        <v>742952.7028</v>
+      </c>
+      <c r="G242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -5246,10 +5975,13 @@
         <v>1.859</v>
       </c>
       <c r="F243">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6">
+        <v>56234.2099</v>
+      </c>
+      <c r="G243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -5266,10 +5998,13 @@
         <v>1.859</v>
       </c>
       <c r="F244">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6">
+        <v>13403.4026</v>
+      </c>
+      <c r="G244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -5286,10 +6021,13 @@
         <v>1.866</v>
       </c>
       <c r="F245">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6">
+        <v>408086.0558</v>
+      </c>
+      <c r="G245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -5306,10 +6044,13 @@
         <v>1.87</v>
       </c>
       <c r="F246">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6">
+        <v>760456.6955</v>
+      </c>
+      <c r="G246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -5326,10 +6067,13 @@
         <v>1.858</v>
       </c>
       <c r="F247">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6">
+        <v>419235.9819</v>
+      </c>
+      <c r="G247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -5346,10 +6090,13 @@
         <v>1.859</v>
       </c>
       <c r="F248">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6">
+        <v>3406388</v>
+      </c>
+      <c r="G248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -5366,10 +6113,13 @@
         <v>1.859</v>
       </c>
       <c r="F249">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6">
+        <v>2260130</v>
+      </c>
+      <c r="G249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -5386,10 +6136,13 @@
         <v>1.859</v>
       </c>
       <c r="F250">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6">
+        <v>456900</v>
+      </c>
+      <c r="G250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -5406,10 +6159,13 @@
         <v>1.879</v>
       </c>
       <c r="F251">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6">
+        <v>13403.4026</v>
+      </c>
+      <c r="G251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -5426,10 +6182,13 @@
         <v>1.88</v>
       </c>
       <c r="F252">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6">
+        <v>822.1011</v>
+      </c>
+      <c r="G252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -5446,10 +6205,13 @@
         <v>1.875</v>
       </c>
       <c r="F253">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6">
+        <v>188186.0175</v>
+      </c>
+      <c r="G253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -5466,10 +6228,13 @@
         <v>1.873</v>
       </c>
       <c r="F254">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6">
+        <v>2145.5522</v>
+      </c>
+      <c r="G254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -5486,10 +6251,13 @@
         <v>1.86</v>
       </c>
       <c r="F255">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6">
+        <v>242630.7147</v>
+      </c>
+      <c r="G255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -5506,10 +6274,13 @@
         <v>1.861</v>
       </c>
       <c r="F256">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6">
+        <v>9924.049000000001</v>
+      </c>
+      <c r="G256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -5526,10 +6297,13 @@
         <v>1.864</v>
       </c>
       <c r="F257">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6">
+        <v>156912.0866</v>
+      </c>
+      <c r="G257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -5546,10 +6320,13 @@
         <v>1.859</v>
       </c>
       <c r="F258">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6">
+        <v>2185205.3652</v>
+      </c>
+      <c r="G258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -5566,10 +6343,13 @@
         <v>1.859</v>
       </c>
       <c r="F259">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6">
+        <v>3267745</v>
+      </c>
+      <c r="G259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -5586,10 +6366,13 @@
         <v>1.859</v>
       </c>
       <c r="F260">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6">
+        <v>2941814.466666667</v>
+      </c>
+      <c r="G260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -5606,10 +6389,13 @@
         <v>1.858</v>
       </c>
       <c r="F261">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6">
+        <v>1687125.122</v>
+      </c>
+      <c r="G261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -5626,10 +6412,13 @@
         <v>1.859</v>
       </c>
       <c r="F262">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6">
+        <v>2850765</v>
+      </c>
+      <c r="G262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -5646,10 +6435,13 @@
         <v>1.859</v>
       </c>
       <c r="F263">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6">
+        <v>2849738</v>
+      </c>
+      <c r="G263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -5666,10 +6458,13 @@
         <v>1.875</v>
       </c>
       <c r="F264">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6">
+        <v>1018.7916</v>
+      </c>
+      <c r="G264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -5686,10 +6481,13 @@
         <v>1.859</v>
       </c>
       <c r="F265">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6">
+        <v>1495.1028</v>
+      </c>
+      <c r="G265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -5706,10 +6504,13 @@
         <v>1.859</v>
       </c>
       <c r="F266">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6">
+        <v>49884.9623</v>
+      </c>
+      <c r="G266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -5726,10 +6527,13 @@
         <v>1.859</v>
       </c>
       <c r="F267">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6">
+        <v>135506.4179</v>
+      </c>
+      <c r="G267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -5746,10 +6550,13 @@
         <v>1.859</v>
       </c>
       <c r="F268">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6">
+        <v>2165304</v>
+      </c>
+      <c r="G268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -5766,10 +6573,13 @@
         <v>1.859</v>
       </c>
       <c r="F269">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6">
+        <v>3002684</v>
+      </c>
+      <c r="G269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -5786,10 +6596,13 @@
         <v>1.859</v>
       </c>
       <c r="F270">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6">
+        <v>2750526</v>
+      </c>
+      <c r="G270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -5806,10 +6619,13 @@
         <v>1.875</v>
       </c>
       <c r="F271">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6">
+        <v>267</v>
+      </c>
+      <c r="G271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -5826,10 +6642,13 @@
         <v>1.875</v>
       </c>
       <c r="F272">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6">
+        <v>9968.724200000001</v>
+      </c>
+      <c r="G272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -5846,10 +6665,13 @@
         <v>1.871</v>
       </c>
       <c r="F273">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6">
+        <v>915661</v>
+      </c>
+      <c r="G273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -5866,10 +6688,13 @@
         <v>1.871</v>
       </c>
       <c r="F274">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6">
+        <v>3314927</v>
+      </c>
+      <c r="G274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -5886,10 +6711,13 @@
         <v>1.874</v>
       </c>
       <c r="F275">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6">
+        <v>2108950</v>
+      </c>
+      <c r="G275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -5906,10 +6734,13 @@
         <v>1.891</v>
       </c>
       <c r="F276">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6">
+        <v>266090.0735</v>
+      </c>
+      <c r="G276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -5926,10 +6757,13 @@
         <v>1.871</v>
       </c>
       <c r="F277">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6">
+        <v>614128</v>
+      </c>
+      <c r="G277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -5946,10 +6780,13 @@
         <v>1.891</v>
       </c>
       <c r="F278">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6">
+        <v>11989.7035</v>
+      </c>
+      <c r="G278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -5966,10 +6803,13 @@
         <v>1.892</v>
       </c>
       <c r="F279">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6">
+        <v>19614.7553</v>
+      </c>
+      <c r="G279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -5986,10 +6826,13 @@
         <v>1.893</v>
       </c>
       <c r="F280">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6">
+        <v>3233.8435</v>
+      </c>
+      <c r="G280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -6006,10 +6849,13 @@
         <v>1.893</v>
       </c>
       <c r="F281">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6">
+        <v>4251.5906</v>
+      </c>
+      <c r="G281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -6026,10 +6872,13 @@
         <v>1.892</v>
       </c>
       <c r="F282">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6">
+        <v>1363.5901</v>
+      </c>
+      <c r="G282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -6046,10 +6895,13 @@
         <v>1.868</v>
       </c>
       <c r="F283">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6">
+        <v>2971643</v>
+      </c>
+      <c r="G283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -6066,10 +6918,13 @@
         <v>1.868</v>
       </c>
       <c r="F284">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6">
+        <v>2968172</v>
+      </c>
+      <c r="G284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -6086,10 +6941,13 @@
         <v>1.868</v>
       </c>
       <c r="F285">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6">
+        <v>1397128</v>
+      </c>
+      <c r="G285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -6106,10 +6964,13 @@
         <v>1.868</v>
       </c>
       <c r="F286">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6">
+        <v>2610309</v>
+      </c>
+      <c r="G286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -6126,10 +6987,13 @@
         <v>1.868</v>
       </c>
       <c r="F287">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6">
+        <v>3067714</v>
+      </c>
+      <c r="G287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -6146,10 +7010,13 @@
         <v>1.871</v>
       </c>
       <c r="F288">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="1:6">
+        <v>2635681</v>
+      </c>
+      <c r="G288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -6166,10 +7033,13 @@
         <v>1.871</v>
       </c>
       <c r="F289">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290" spans="1:6">
+        <v>2787489</v>
+      </c>
+      <c r="G289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -6186,10 +7056,13 @@
         <v>1.871</v>
       </c>
       <c r="F290">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" spans="1:6">
+        <v>3226424</v>
+      </c>
+      <c r="G290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -6206,10 +7079,13 @@
         <v>1.871</v>
       </c>
       <c r="F291">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" spans="1:6">
+        <v>1206658</v>
+      </c>
+      <c r="G291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -6226,10 +7102,13 @@
         <v>1.89</v>
       </c>
       <c r="F292">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" spans="1:6">
+        <v>265</v>
+      </c>
+      <c r="G292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -6246,10 +7125,13 @@
         <v>1.866</v>
       </c>
       <c r="F293">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294" spans="1:6">
+        <v>2098745</v>
+      </c>
+      <c r="G293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -6266,10 +7148,13 @@
         <v>1.866</v>
       </c>
       <c r="F294">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295" spans="1:6">
+        <v>3624225</v>
+      </c>
+      <c r="G294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -6286,10 +7171,13 @@
         <v>1.867</v>
       </c>
       <c r="F295">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" spans="1:6">
+        <v>1027170.8979</v>
+      </c>
+      <c r="G295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -6306,10 +7194,13 @@
         <v>1.867</v>
       </c>
       <c r="F296">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297" spans="1:6">
+        <v>1212907.676370402</v>
+      </c>
+      <c r="G296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -6326,10 +7217,13 @@
         <v>1.868</v>
       </c>
       <c r="F297">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298" spans="1:6">
+        <v>294.255</v>
+      </c>
+      <c r="G297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -6346,10 +7240,13 @@
         <v>1.891</v>
       </c>
       <c r="F298">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299" spans="1:6">
+        <v>265</v>
+      </c>
+      <c r="G298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -6366,10 +7263,13 @@
         <v>1.872</v>
       </c>
       <c r="F299">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300" spans="1:6">
+        <v>1458716</v>
+      </c>
+      <c r="G299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -6386,10 +7286,13 @@
         <v>1.872</v>
       </c>
       <c r="F300">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301" spans="1:6">
+        <v>3129896</v>
+      </c>
+      <c r="G300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -6406,10 +7309,13 @@
         <v>1.872</v>
       </c>
       <c r="F301">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="302" spans="1:6">
+        <v>2545907</v>
+      </c>
+      <c r="G301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -6426,10 +7332,13 @@
         <v>1.888</v>
       </c>
       <c r="F302">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="303" spans="1:6">
+        <v>530</v>
+      </c>
+      <c r="G302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -6446,10 +7355,13 @@
         <v>1.888</v>
       </c>
       <c r="F303">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="304" spans="1:6">
+        <v>200000</v>
+      </c>
+      <c r="G303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -6466,10 +7378,13 @@
         <v>1.89</v>
       </c>
       <c r="F304">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="305" spans="1:6">
+        <v>265</v>
+      </c>
+      <c r="G304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -6486,10 +7401,13 @@
         <v>1.889</v>
       </c>
       <c r="F305">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="306" spans="1:6">
+        <v>265</v>
+      </c>
+      <c r="G305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -6506,10 +7424,13 @@
         <v>1.889</v>
       </c>
       <c r="F306">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="307" spans="1:6">
+        <v>735</v>
+      </c>
+      <c r="G306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -6526,10 +7447,13 @@
         <v>1.89</v>
       </c>
       <c r="F307">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="308" spans="1:6">
+        <v>62288.7648</v>
+      </c>
+      <c r="G307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -6546,10 +7470,13 @@
         <v>1.889</v>
       </c>
       <c r="F308">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="309" spans="1:6">
+        <v>200000</v>
+      </c>
+      <c r="G308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -6566,10 +7493,13 @@
         <v>1.888</v>
       </c>
       <c r="F309">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="310" spans="1:6">
+        <v>506725.3572</v>
+      </c>
+      <c r="G309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -6586,10 +7516,13 @@
         <v>1.887</v>
       </c>
       <c r="F310">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="311" spans="1:6">
+        <v>267</v>
+      </c>
+      <c r="G310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -6606,10 +7539,13 @@
         <v>1.871</v>
       </c>
       <c r="F311">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="312" spans="1:6">
+        <v>1406103.4744</v>
+      </c>
+      <c r="G311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -6626,10 +7562,13 @@
         <v>1.872</v>
       </c>
       <c r="F312">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="313" spans="1:6">
+        <v>2820350</v>
+      </c>
+      <c r="G312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -6646,10 +7585,13 @@
         <v>1.872</v>
       </c>
       <c r="F313">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="314" spans="1:6">
+        <v>1728003</v>
+      </c>
+      <c r="G313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -6666,10 +7608,13 @@
         <v>1.872</v>
       </c>
       <c r="F314">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="315" spans="1:6">
+        <v>1207317</v>
+      </c>
+      <c r="G314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -6686,10 +7631,13 @@
         <v>1.872</v>
       </c>
       <c r="F315">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="316" spans="1:6">
+        <v>307077.7648</v>
+      </c>
+      <c r="G315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -6706,10 +7654,13 @@
         <v>1.872</v>
       </c>
       <c r="F316">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="317" spans="1:6">
+        <v>495010</v>
+      </c>
+      <c r="G316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -6726,10 +7677,13 @@
         <v>1.888</v>
       </c>
       <c r="F317">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="318" spans="1:6">
+        <v>265</v>
+      </c>
+      <c r="G317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -6746,10 +7700,13 @@
         <v>1.888</v>
       </c>
       <c r="F318">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="319" spans="1:6">
+        <v>265</v>
+      </c>
+      <c r="G318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -6766,10 +7723,13 @@
         <v>1.888</v>
       </c>
       <c r="F319">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="320" spans="1:6">
+        <v>265</v>
+      </c>
+      <c r="G319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -6786,10 +7746,13 @@
         <v>1.888</v>
       </c>
       <c r="F320">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="321" spans="1:6">
+        <v>267</v>
+      </c>
+      <c r="G320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -6806,10 +7769,13 @@
         <v>1.889</v>
       </c>
       <c r="F321">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322" spans="1:6">
+        <v>139917.5301</v>
+      </c>
+      <c r="G321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -6826,10 +7792,13 @@
         <v>1.867</v>
       </c>
       <c r="F322">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="323" spans="1:6">
+        <v>610163.8768</v>
+      </c>
+      <c r="G322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -6846,10 +7815,13 @@
         <v>1.867</v>
       </c>
       <c r="F323">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324" spans="1:6">
+        <v>49892.8736</v>
+      </c>
+      <c r="G323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -6866,10 +7838,13 @@
         <v>1.867</v>
       </c>
       <c r="F324">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="325" spans="1:6">
+        <v>2181136.2496</v>
+      </c>
+      <c r="G324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -6886,10 +7861,13 @@
         <v>1.871</v>
       </c>
       <c r="F325">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="326" spans="1:6">
+        <v>3467961</v>
+      </c>
+      <c r="G325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -6906,10 +7884,13 @@
         <v>1.871</v>
       </c>
       <c r="F326">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="327" spans="1:6">
+        <v>2927860</v>
+      </c>
+      <c r="G326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -6926,10 +7907,13 @@
         <v>1.867</v>
       </c>
       <c r="F327">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="328" spans="1:6">
+        <v>1526738</v>
+      </c>
+      <c r="G327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -6946,10 +7930,13 @@
         <v>1.871</v>
       </c>
       <c r="F328">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="329" spans="1:6">
+        <v>2819383.6989</v>
+      </c>
+      <c r="G328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -6966,10 +7953,13 @@
         <v>1.871</v>
       </c>
       <c r="F329">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="330" spans="1:6">
+        <v>2900871</v>
+      </c>
+      <c r="G329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -6986,10 +7976,13 @@
         <v>1.871</v>
       </c>
       <c r="F330">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="331" spans="1:6">
+        <v>2144914</v>
+      </c>
+      <c r="G330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -7006,10 +7999,13 @@
         <v>1.871</v>
       </c>
       <c r="F331">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="332" spans="1:6">
+        <v>3002840</v>
+      </c>
+      <c r="G331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -7026,10 +8022,13 @@
         <v>1.871</v>
       </c>
       <c r="F332">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="333" spans="1:6">
+        <v>1979595</v>
+      </c>
+      <c r="G332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -7046,10 +8045,13 @@
         <v>1.888</v>
       </c>
       <c r="F333">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="334" spans="1:6">
+        <v>265</v>
+      </c>
+      <c r="G333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -7066,10 +8068,13 @@
         <v>1.886</v>
       </c>
       <c r="F334">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="335" spans="1:6">
+        <v>266</v>
+      </c>
+      <c r="G334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -7086,10 +8091,13 @@
         <v>1.871</v>
       </c>
       <c r="F335">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="336" spans="1:6">
+        <v>2458268.1565</v>
+      </c>
+      <c r="G335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -7106,10 +8114,13 @@
         <v>1.868</v>
       </c>
       <c r="F336">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="337" spans="1:6">
+        <v>2833140.3404</v>
+      </c>
+      <c r="G336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -7126,10 +8137,13 @@
         <v>1.871</v>
       </c>
       <c r="F337">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="338" spans="1:6">
+        <v>2885435</v>
+      </c>
+      <c r="G337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -7146,10 +8160,13 @@
         <v>1.868</v>
       </c>
       <c r="F338">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="339" spans="1:6">
+        <v>769250</v>
+      </c>
+      <c r="G338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -7166,10 +8183,13 @@
         <v>1.87</v>
       </c>
       <c r="F339">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="340" spans="1:6">
+        <v>32977.9923</v>
+      </c>
+      <c r="G339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -7186,10 +8206,13 @@
         <v>1.87</v>
       </c>
       <c r="F340">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="341" spans="1:6">
+        <v>350548.7626</v>
+      </c>
+      <c r="G340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -7206,10 +8229,13 @@
         <v>1.88</v>
       </c>
       <c r="F341">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="342" spans="1:6">
+        <v>37977.9923</v>
+      </c>
+      <c r="G341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -7226,10 +8252,13 @@
         <v>1.871</v>
       </c>
       <c r="F342">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="343" spans="1:6">
+        <v>3001464</v>
+      </c>
+      <c r="G342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -7246,10 +8275,13 @@
         <v>1.871</v>
       </c>
       <c r="F343">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="344" spans="1:6">
+        <v>2322060</v>
+      </c>
+      <c r="G343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -7266,10 +8298,13 @@
         <v>1.871</v>
       </c>
       <c r="F344">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="345" spans="1:6">
+        <v>2644019</v>
+      </c>
+      <c r="G344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -7286,10 +8321,13 @@
         <v>1.873</v>
       </c>
       <c r="F345">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="346" spans="1:6">
+        <v>823954</v>
+      </c>
+      <c r="G345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -7306,10 +8344,13 @@
         <v>1.873</v>
       </c>
       <c r="F346">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="347" spans="1:6">
+        <v>3405128</v>
+      </c>
+      <c r="G346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -7326,10 +8367,13 @@
         <v>1.873</v>
       </c>
       <c r="F347">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="348" spans="1:6">
+        <v>3172568.4232</v>
+      </c>
+      <c r="G347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -7346,10 +8390,13 @@
         <v>1.873</v>
       </c>
       <c r="F348">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="349" spans="1:6">
+        <v>419420</v>
+      </c>
+      <c r="G348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -7366,10 +8413,13 @@
         <v>1.873</v>
       </c>
       <c r="F349">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="350" spans="1:6">
+        <v>150000</v>
+      </c>
+      <c r="G349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -7386,10 +8436,13 @@
         <v>1.871</v>
       </c>
       <c r="F350">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="351" spans="1:6">
+        <v>296692.3978</v>
+      </c>
+      <c r="G350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -7406,6 +8459,9 @@
         <v>1.871</v>
       </c>
       <c r="F351">
+        <v>41787.5556</v>
+      </c>
+      <c r="G351">
         <v>0</v>
       </c>
     </row>
